--- a/src/data/applicants.xlsx
+++ b/src/data/applicants.xlsx
@@ -1,139 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="data"/>
-    <sheet r:id="rId2" sheetId="2" name="Evaluation Warning"/>
+    <sheet name="data" sheetId="1" r:id="rId3"/>
+    <sheet name="Evaluation Warning" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+  <si>
+    <t>jbarraza@gmail.com</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>civil_state</t>
+  </si>
+  <si>
+    <t>type_document</t>
+  </si>
+  <si>
+    <t>document_number</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>Deiver</t>
+  </si>
+  <si>
+    <t>Vasquez</t>
+  </si>
+  <si>
+    <t>thebigdeijose@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>Cajacopi</t>
+  </si>
+  <si>
+    <t>thebigcdeijose@gmail.com</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>barraza</t>
+  </si>
+  <si>
+    <t>juan@gmail.com</t>
+  </si>
+  <si>
+    <t>pozon</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>nueva</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Barraza</t>
+  </si>
+  <si>
+    <t>juanB@gmail.com</t>
+  </si>
+  <si>
+    <t>cajacopi</t>
+  </si>
+  <si>
+    <t>JuanB@gmail.com</t>
+  </si>
+  <si>
+    <t>campanos</t>
+  </si>
+  <si>
+    <t>juanb@gmail.com</t>
+  </si>
+  <si>
+    <t>married</t>
+  </si>
+  <si>
+    <t>San Jose de los Campanos</t>
+  </si>
+  <si>
+    <t>3001234567</t>
+  </si>
+  <si>
+    <t>San jose de los campanos</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>jbjj@jhschs.com</t>
+  </si>
+  <si>
+    <t>2345678</t>
+  </si>
+  <si>
+    <t>sdfghjuytresa</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>234567</t>
+  </si>
+  <si>
+    <t>dfd</t>
+  </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2023 Aspose Pty Ltd.</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>civil_state</t>
-  </si>
-  <si>
-    <t>type_document</t>
-  </si>
-  <si>
-    <t>document_number</t>
-  </si>
-  <si>
-    <t>eps</t>
-  </si>
-  <si>
-    <t>Deiver</t>
-  </si>
-  <si>
-    <t>Vasquez</t>
-  </si>
-  <si>
-    <t>thebigdeijose@gmail.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>ppt</t>
-  </si>
-  <si>
-    <t>Cajacopi</t>
-  </si>
-  <si>
-    <t>thebigcdeijose@gmail.com</t>
-  </si>
-  <si>
-    <t>juan</t>
-  </si>
-  <si>
-    <t>barraza</t>
-  </si>
-  <si>
-    <t>juan@gmail.com</t>
-  </si>
-  <si>
-    <t>pozon</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>nueva</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Barraza</t>
-  </si>
-  <si>
-    <t>juanB@gmail.com</t>
-  </si>
-  <si>
-    <t>cajacopi</t>
-  </si>
-  <si>
-    <t>JuanB@gmail.com</t>
-  </si>
-  <si>
-    <t>campanos</t>
-  </si>
-  <si>
-    <t>juanb@gmail.com</t>
-  </si>
-  <si>
-    <t>married</t>
-  </si>
-  <si>
-    <t>San Jose de los Campanos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,10 +172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="18"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -170,14 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -186,47 +215,152 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -237,10 +371,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -516,29 +650,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="7.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.571428571428571" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.428571428571429" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.142857142857143" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.857142857142857" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.571428571428571" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.428571428571429" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.857142857142858" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.714285714285715" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.857142857142858" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -570,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -581,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="7">
-        <v>3007887902</v>
+        <v>3.007887902E9</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
@@ -602,7 +736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -613,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="7">
-        <v>3007887902</v>
+        <v>3.007887902E9</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>14</v>
@@ -634,7 +768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -645,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>3007887902</v>
+        <v>3.007887902E9</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>14</v>
@@ -666,7 +800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -677,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>3007887902</v>
+        <v>3.007887902E9</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>14</v>
@@ -698,7 +832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -709,7 +843,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>3104253068</v>
+        <v>3.104253068E9</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>14</v>
@@ -724,13 +858,13 @@
         <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>1043639652</v>
+        <v>1.043639652E9</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -762,7 +896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -773,7 +907,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>3001234567</v>
+        <v>3.001234567E9</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
@@ -794,7 +928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -805,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>3001234567</v>
+        <v>3.001234567E9</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
@@ -826,7 +960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -837,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>3007887902</v>
+        <v>3.007887902E9</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>14</v>
@@ -858,7 +992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
@@ -869,7 +1003,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>3001234567</v>
+        <v>3.001234567E9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
@@ -890,7 +1024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -901,7 +1035,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>3007887902</v>
+        <v>3.007887902E9</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
@@ -920,6 +1054,70 @@
       </c>
       <c r="J12" s="6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -928,37 +1126,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32bae4ea-b287-4c34-88f7-5507994f518e}">
+  <dimension ref="A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
+    <row r="5" spans="1:1" ht="23.25" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>